--- a/PCB/JLCPCB REV1/cpl.xlsx
+++ b/PCB/JLCPCB REV1/cpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="167">
   <si>
     <t>Designator</t>
   </si>
@@ -303,12 +303,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>82.425000</t>
-  </si>
-  <si>
-    <t>-49.300000</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -523,6 +517,9 @@
   </si>
   <si>
     <t>-35.937500</t>
+  </si>
+  <si>
+    <t>-49.100000</t>
   </si>
 </sst>
 </file>
@@ -881,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1443,27 +1440,27 @@
         <v>93</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>24</v>
@@ -1474,13 +1471,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>24</v>
@@ -1491,13 +1488,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>24</v>
@@ -1508,13 +1505,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>24</v>
@@ -1525,13 +1522,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>24</v>
@@ -1542,13 +1539,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>24</v>
@@ -1559,13 +1556,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>24</v>
@@ -1576,13 +1573,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>24</v>
@@ -1593,13 +1590,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>24</v>
@@ -1610,13 +1607,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>24</v>
@@ -1627,13 +1624,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>24</v>
@@ -1644,13 +1641,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>24</v>
@@ -1661,13 +1658,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>24</v>
@@ -1678,13 +1675,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>24</v>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>24</v>
@@ -1712,13 +1709,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>24</v>
@@ -1729,13 +1726,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>24</v>
@@ -1746,13 +1743,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>24</v>
@@ -1763,13 +1760,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>24</v>
@@ -1780,13 +1777,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>24</v>
@@ -1797,13 +1794,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>24</v>
@@ -1814,13 +1811,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>24</v>
@@ -1831,13 +1828,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>24</v>
@@ -1848,13 +1845,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>24</v>
@@ -1865,13 +1862,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>24</v>
@@ -1882,13 +1879,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>24</v>
@@ -1899,13 +1896,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>24</v>
